--- a/graph/measures/_tests/measures.xlsx
+++ b/graph/measures/_tests/measures.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theo_\Documents\CAS\Master thesis\TutorialGIT\graph\measures\_tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122D4D7-1BF2-4FBB-9320-8943E5613A37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,8 +13,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$H$41</definedName>
   </definedNames>
   <calcPr calcId="130000"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Graph measure</t>
   </si>
@@ -196,14 +190,92 @@
   </si>
   <si>
     <t>Randomize</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pathlengt</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>h_within_subgraph</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pathlength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_within_subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_in</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pathlength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_within_subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_out</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participation_in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participation_out</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,7 +318,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -277,12 +349,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -475,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -504,9 +570,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -820,35 +883,35 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr published="0"/>
-  <dimension ref="A1:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="16" thickTop="1" thickBot="1">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -871,21 +934,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8">
       <c r="A2" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
@@ -899,7 +962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -913,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8">
       <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
@@ -924,7 +987,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="13"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
@@ -935,40 +998,40 @@
       <c r="F6" s="2"/>
       <c r="G6" s="13"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="9"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="9"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
@@ -977,9 +1040,9 @@
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="28"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
@@ -988,9 +1051,9 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="18" t="s">
         <v>13</v>
       </c>
@@ -999,9 +1062,9 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
@@ -1010,9 +1073,9 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="28"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="19" t="s">
         <v>15</v>
       </c>
@@ -1021,9 +1084,9 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G14" s="28"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
         <v>52</v>
       </c>
@@ -1032,9 +1095,9 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G15" s="28"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="18" t="s">
         <v>12</v>
       </c>
@@ -1045,7 +1108,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="13"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7">
       <c r="A17" s="18" t="s">
         <v>32</v>
       </c>
@@ -1056,7 +1119,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7">
       <c r="A18" s="18" t="s">
         <v>33</v>
       </c>
@@ -1067,7 +1130,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="13"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1141,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7">
       <c r="A20" s="18" t="s">
         <v>21</v>
       </c>
@@ -1089,7 +1152,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="13"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7">
       <c r="A21" s="18" t="s">
         <v>22</v>
       </c>
@@ -1100,7 +1163,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7">
       <c r="A22" s="18" t="s">
         <v>23</v>
       </c>
@@ -1111,7 +1174,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="13"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7">
       <c r="A23" s="18" t="s">
         <v>24</v>
       </c>
@@ -1122,7 +1185,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7">
       <c r="A24" s="18" t="s">
         <v>25</v>
       </c>
@@ -1133,7 +1196,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="13"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7">
       <c r="A25" s="18" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1207,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7">
       <c r="A26" s="18" t="s">
         <v>40</v>
       </c>
@@ -1155,7 +1218,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="13"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7">
       <c r="A27" s="18" t="s">
         <v>41</v>
       </c>
@@ -1166,31 +1229,31 @@
       <c r="F27" s="2"/>
       <c r="G27" s="13"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7">
       <c r="A28" s="18" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="11"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="2"/>
       <c r="G28" s="13"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7">
       <c r="A29" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="2"/>
       <c r="G29" s="13"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
-        <v>29</v>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="1"/>
@@ -1199,9 +1262,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="13"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
-        <v>28</v>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="1"/>
@@ -1210,9 +1273,9 @@
       <c r="F31" s="2"/>
       <c r="G31" s="13"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7">
       <c r="A32" s="18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="1"/>
@@ -1221,9 +1284,9 @@
       <c r="F32" s="2"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7">
       <c r="A33" s="18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="1"/>
@@ -1232,9 +1295,9 @@
       <c r="F33" s="2"/>
       <c r="G33" s="13"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7">
       <c r="A34" s="18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="1"/>
@@ -1243,9 +1306,9 @@
       <c r="F34" s="2"/>
       <c r="G34" s="13"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7">
       <c r="A35" s="18" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="1"/>
@@ -1254,124 +1317,180 @@
       <c r="F35" s="2"/>
       <c r="G35" s="13"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+    <row r="36" spans="1:7">
+      <c r="A36" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="2"/>
       <c r="G36" s="13"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="2"/>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7">
       <c r="A38" s="18" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="2"/>
+      <c r="G38" s="13"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F39" s="2"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F40" s="2"/>
+      <c r="G40" s="13"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="13"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="13"/>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="18" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="1"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="18" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="21" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="28"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="13"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="13"/>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1">
+      <c r="A50" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
+  <autoFilter ref="A1:H41"/>
+  <sortState ref="A2:H45">
     <sortCondition ref="A3:A45"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/graph/measures/_tests/measures.xlsx
+++ b/graph/measures/_tests/measures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21600" windowHeight="13520"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="21580" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -558,7 +558,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -883,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -895,8 +894,8 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F39" sqref="F39"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -912,44 +911,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="16" thickTop="1" thickBot="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="9"/>
@@ -957,13 +956,13 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="9"/>
@@ -971,13 +970,13 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="H4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
@@ -985,10 +984,10 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="9"/>
@@ -996,10 +995,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="9"/>
@@ -1007,10 +1006,10 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="9"/>
@@ -1018,10 +1017,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="9"/>
@@ -1029,21 +1028,21 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="9"/>
@@ -1051,10 +1050,10 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="28"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="9"/>
@@ -1062,10 +1061,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="28"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="9"/>
@@ -1073,10 +1072,10 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="9"/>
@@ -1084,10 +1083,10 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="9"/>
@@ -1095,10 +1094,10 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="9"/>
@@ -1106,10 +1105,10 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="9"/>
@@ -1117,10 +1116,10 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="9"/>
@@ -1128,10 +1127,10 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="9"/>
@@ -1139,10 +1138,10 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="13"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="9"/>
@@ -1150,10 +1149,10 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="13"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="9"/>
@@ -1161,10 +1160,10 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="9"/>
@@ -1172,10 +1171,10 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="13"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="9"/>
@@ -1183,10 +1182,10 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="13"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="9"/>
@@ -1194,10 +1193,10 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="13"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="9"/>
@@ -1205,10 +1204,10 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="13"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="17" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="9"/>
@@ -1216,10 +1215,10 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="9"/>
@@ -1227,21 +1226,21 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="13"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>50</v>
       </c>
       <c r="B29" s="9"/>
@@ -1249,10 +1248,10 @@
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="13"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="9"/>
@@ -1260,10 +1259,10 @@
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="9"/>
@@ -1271,10 +1270,10 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="13"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="9"/>
@@ -1282,10 +1281,10 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="13"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="9"/>
@@ -1293,10 +1292,10 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="13"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="9"/>
@@ -1304,10 +1303,10 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="13"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="17" t="s">
         <v>54</v>
       </c>
       <c r="B35" s="9"/>
@@ -1315,10 +1314,10 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="13"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="17" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="9"/>
@@ -1326,10 +1325,10 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="13"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="17" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="9"/>
@@ -1337,10 +1336,10 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="13"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="9"/>
@@ -1348,10 +1347,10 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="13"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="9"/>
@@ -1359,10 +1358,10 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="13"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="9"/>
@@ -1370,32 +1369,32 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="13"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="13"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="13"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B43" s="9"/>
@@ -1403,10 +1402,10 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="28"/>
+      <c r="G43" s="27"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B44" s="9"/>
@@ -1414,10 +1413,10 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="28"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B45" s="9"/>
@@ -1425,10 +1424,10 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="28"/>
+      <c r="G45" s="27"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B46" s="9"/>
@@ -1436,10 +1435,10 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="28"/>
+      <c r="G46" s="27"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B47" s="9"/>
@@ -1447,10 +1446,10 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="28"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="9"/>
@@ -1458,10 +1457,10 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="13"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="9"/>
@@ -1469,18 +1468,18 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="15"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H41"/>
@@ -1489,7 +1488,6 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">

--- a/graph/measures/_tests/measures.xlsx
+++ b/graph/measures/_tests/measures.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="21580" windowHeight="13520"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="21580" windowHeight="13520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nodal" sheetId="1" r:id="rId1"/>
+    <sheet name="Global" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Global!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nodal!$A$1:$H$53</definedName>
   </definedNames>
   <calcPr calcId="130000"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -25,7 +27,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+  <si>
+    <t>Characteristic_pathlength_wsg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_wsg_in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_wsg_out</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eccentricity_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eccentricity_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eccentricity_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_efficiency_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_efficiency_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_efficiency_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Local_efficiency_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>average</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallworldness_wsg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>Graph measure</t>
   </si>
@@ -57,9 +139,6 @@
     <t>Won't be implemented</t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
     <t>Radius</t>
   </si>
   <si>
@@ -147,15 +226,6 @@
     <t>Transitivity</t>
   </si>
   <si>
-    <t>Local_efficiency_global</t>
-  </si>
-  <si>
-    <t>Local_efficiency_nodal</t>
-  </si>
-  <si>
-    <t>Assortativity</t>
-  </si>
-  <si>
     <t>Modularity</t>
   </si>
   <si>
@@ -186,10 +256,6 @@
   </si>
   <si>
     <t>Density</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Randomize</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -268,6 +334,86 @@
   </si>
   <si>
     <t>Participation_out</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_in_in</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_in_out</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_out_in</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_out_out</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_efficiency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_out</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +464,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,8 +495,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -537,11 +689,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -557,25 +754,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -882,7 +1080,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -890,608 +1088,906 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H50"/>
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="16" thickTop="1" thickBot="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="A2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="25"/>
       <c r="G2" s="26"/>
       <c r="H2" s="5" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9"/>
+      <c r="A3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9"/>
+      <c r="A4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9"/>
+      <c r="A5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9"/>
+      <c r="A6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="9"/>
+      <c r="A7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="9"/>
+      <c r="A8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="9"/>
+      <c r="A9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <autoFilter ref="A1:H53"/>
+  <sortState ref="A2:H45">
+    <sortCondition ref="A3:A45"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29921259842519687" footer="0.29921259842519687"/>
+  <pageSetup paperSize="0" scale="72" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" thickTop="1" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="10"/>
+      <c r="A10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="27"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="A11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9"/>
+      <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="A13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9"/>
+      <c r="A14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="9"/>
+      <c r="A15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9"/>
+      <c r="A16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="12"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="9"/>
+      <c r="A17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9"/>
+      <c r="A18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9"/>
+      <c r="A19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9"/>
+      <c r="A20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9"/>
+      <c r="A21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9"/>
+      <c r="A22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="12"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9"/>
+      <c r="A23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="12"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9"/>
+      <c r="A24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="12"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9"/>
+      <c r="A25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="12"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="9"/>
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="12"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="9"/>
+      <c r="A29" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="9"/>
+      <c r="A30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B31" s="9"/>
+      <c r="A31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="12"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="9"/>
+      <c r="A32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="12"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="9"/>
+      <c r="A33" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="12"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="9"/>
+      <c r="A34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="12"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="12"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="12"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="12"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="27"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="27"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="27"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="12"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="12"/>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1">
-      <c r="A50" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="22"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41"/>
-  <sortState ref="A2:H45">
-    <sortCondition ref="A3:A45"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <autoFilter ref="A1:H16"/>
+  <sortState ref="A2:H35">
+    <sortCondition ref="A3:A35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75196850393700787" right="0.75196850393700787" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" scale="78" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>

--- a/graph/measures/_tests/measures.xlsx
+++ b/graph/measures/_tests/measures.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theo_\Documents\CAS\Master thesis\TutorialGIT\graph\measures\_tests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122D4D7-1BF2-4FBB-9320-8943E5613A37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="21580" windowHeight="13520" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Nodal" sheetId="1" r:id="rId1"/>
+    <sheet name="Global" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Blad1!$A$1:$H$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Global!$A$1:$H$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nodal!$A$1:$H$53</definedName>
   </definedNames>
   <calcPr calcId="130000"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -31,7 +27,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+  <si>
+    <t>Characteristic_pathlength_wsg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_wsg_in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_wsg_out</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Degree_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eccentricity_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eccentricity_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eccentricity_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_efficiency_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_efficiency_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Global_efficiency_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Local_efficiency_</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>average</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smallworldness_wsg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength_in_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strength_out_average</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>Graph measure</t>
   </si>
@@ -63,9 +139,6 @@
     <t>Won't be implemented</t>
   </si>
   <si>
-    <t>Distance</t>
-  </si>
-  <si>
     <t>Radius</t>
   </si>
   <si>
@@ -153,15 +226,6 @@
     <t>Transitivity</t>
   </si>
   <si>
-    <t>Local_efficiency_global</t>
-  </si>
-  <si>
-    <t>Local_efficiency_nodal</t>
-  </si>
-  <si>
-    <t>Assortativity</t>
-  </si>
-  <si>
     <t>Modularity</t>
   </si>
   <si>
@@ -195,15 +259,169 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Randomize</t>
+    <r>
+      <t>Pathlengt</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>h_within_subgraph</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pathlength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_within_subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_in</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Pathlength</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_within_subgraph</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_out</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participation_in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Participation_out</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_in_in</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_in_out</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_out_in</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Assortativity</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_out_out</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Local_efficiency</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_in</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Characteristic_pathlength_out</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,12 +497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="21"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -471,11 +689,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -491,29 +754,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,561 +1080,914 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr published="0"/>
-  <dimension ref="A1:H45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C38" sqref="C38"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="16" thickTop="1" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="9"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="13"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="9"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="31"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="9"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
+      <c r="A36" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1"/>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <autoFilter ref="A1:H53"/>
+  <sortState ref="A2:H45">
+    <sortCondition ref="A3:A45"/>
+  </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29921259842519687" footer="0.29921259842519687"/>
+  <pageSetup paperSize="0" scale="72" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16" thickTop="1" thickBot="1">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="9"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="9"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="9"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32" s="9"/>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="9"/>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34" s="9"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="13"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
+      <c r="A35" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H41" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
-    <sortCondition ref="A3:A45"/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <autoFilter ref="A1:H16"/>
+  <sortState ref="A2:H35">
+    <sortCondition ref="A3:A35"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75196850393700787" right="0.75196850393700787" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" scale="78" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
